--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AC/10/seed5/result_data_KNN.xlsx
@@ -589,7 +589,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-12.546</v>
+        <v>-12.693</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -597,7 +597,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.512</v>
+        <v>-21.542</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.028</v>
+        <v>-12.309</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -827,7 +827,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.196</v>
+        <v>-12.881</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -877,13 +877,13 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.694</v>
+        <v>-21.977</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.464</v>
+        <v>-13.538</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -911,7 +911,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-11.616</v>
+        <v>-12.101</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -933,7 +933,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-20.464</v>
+        <v>-20.43</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -961,7 +961,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-20.602</v>
+        <v>-19.83</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1023,7 +1023,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.402</v>
+        <v>-12.36</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.896</v>
+        <v>-21.864</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.904</v>
+        <v>-21.917</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.904</v>
+        <v>-12.803</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.964</v>
+        <v>-22.184</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.586</v>
+        <v>-21.577</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1395,7 +1395,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.62</v>
+        <v>-21.503</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1437,7 +1437,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.512</v>
+        <v>-21.689</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-20.812</v>
+        <v>-20.755</v>
       </c>
       <c r="B91" t="n">
         <v>7.49</v>
@@ -1793,7 +1793,7 @@
         <v>6.4</v>
       </c>
       <c r="C97" t="n">
-        <v>-12.216</v>
+        <v>-11.516</v>
       </c>
       <c r="D97" t="n">
         <v>-6.44</v>
@@ -1815,13 +1815,13 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-21.688</v>
+        <v>-21.708</v>
       </c>
       <c r="B99" t="n">
         <v>5.08</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.524</v>
+        <v>-12.418</v>
       </c>
       <c r="D99" t="n">
         <v>-7.59</v>
@@ -1849,7 +1849,7 @@
         <v>8.42</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.472</v>
+        <v>-12.188</v>
       </c>
       <c r="D101" t="n">
         <v>-7.98</v>
@@ -1885,7 +1885,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>-21.548</v>
+        <v>-21.175</v>
       </c>
       <c r="B104" t="n">
         <v>7.61</v>
